--- a/bots/crawl_ch/output/vegi_coop_2023-02-03.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-03.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6126,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8030,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9374,13 +9374,13 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Kiwi SunGold 1 Stück - Online kein Bestand 1.10 Schweizer Franken</t>
+          <t>Kiwi SunGold 1 Stück 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10401,13 +10401,13 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Kiwi rot 1 Stück 1.20 Schweizer Franken</t>
+          <t>Kiwi rot 1 Stück - Online kein Bestand 1.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10549,7 +10549,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" t="n">
         <v>4.5</v>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10884,7 +10884,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11227,7 +11227,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11276,7 +11276,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11540,7 +11540,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11609,7 +11609,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12364,7 +12364,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12575,7 +12575,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13569,7 +13569,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13707,7 +13707,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13845,7 +13845,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13987,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14275,7 +14275,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14340,7 +14340,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14405,7 +14405,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14616,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14685,7 +14685,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14754,7 +14754,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15028,45 +15028,45 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6651408</t>
+          <t>6818092</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdnüsse</t>
+          <t>Planted Kebab 2x  175g</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/prix-garantie-erdnuesse/p/6651408</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-kebab/p/6818092</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E216" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15086,18 +15086,22 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdnüsse 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>Planted Kebab 2x  175g 20% pro 2 Aktion 11.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15166,45 +15170,45 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6818092</t>
+          <t>6651408</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planted Kebab 2x  175g</t>
+          <t>Prix Garantie Erdnüsse</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-kebab/p/6818092</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/prix-garantie-erdnuesse/p/6651408</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E218" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15214,7 +15218,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15224,22 +15228,18 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Planted Kebab 2x  175g 20% pro 2 Aktion 11.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Erdnüsse 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15308,7 +15308,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15446,7 +15446,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16164,7 +16164,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16434,7 +16434,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16499,7 +16499,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16568,7 +16568,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16615,7 +16615,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16761,28 +16761,28 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6614350</t>
+          <t>6222627</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarische Schnitzel</t>
+          <t>Naturaplan Bio Peperoncini rot</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/prix-garantie-vegetarische-schnitzel/p/6614350</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-peperoncini-rot/p/6222627</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -16794,68 +16794,64 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>2.40/1ST</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarische Schnitzel 2.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Peperoncini rot 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6222627</t>
+          <t>6614350</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoncini rot</t>
+          <t>Prix Garantie vegetarische Schnitzel</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-peperoncini-rot/p/6222627</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/prix-garantie-vegetarische-schnitzel/p/6614350</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -16867,43 +16863,47 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2.40/1ST</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoncini rot 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N242" t="inlineStr"/>
+          <t>Prix Garantie vegetarische Schnitzel 2.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16956,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17230,7 +17230,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17376,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18005,7 +18005,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E260" t="n">
         <v>4.5</v>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18208,45 +18208,43 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6877729</t>
+          <t>7107447</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Planted curry</t>
+          <t>Pro Specie Rara Karotten Gniff</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18256,7 +18254,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18266,44 +18264,42 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Planted curry 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7107447</t>
+          <t>6431571</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff</t>
+          <t>Schweizer Dörrbohnen</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>11</v>
+      </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -18312,12 +18308,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18327,7 +18323,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18337,56 +18333,56 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
+          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6431571</t>
+          <t>6877729</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen</t>
+          <t>Planted curry</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/schweizer-doerrbohnen/p/6431571</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E264" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -18396,7 +18392,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18406,18 +18402,22 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Schweizer Dörrbohnen 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr"/>
+          <t>Planted curry 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18559,7 +18559,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18835,7 +18835,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -18975,7 +18975,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19044,7 +19044,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19259,7 +19259,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19332,7 +19332,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19399,7 +19399,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19610,7 +19610,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19679,7 +19679,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19890,7 +19890,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20026,7 +20026,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20093,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20158,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20503,7 +20503,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20568,7 +20568,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20641,7 +20641,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20714,7 +20714,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20856,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20925,7 +20925,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21566,7 +21566,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21631,7 +21631,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21700,7 +21700,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21773,7 +21773,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21840,7 +21840,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21913,7 +21913,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22059,7 +22059,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22132,7 +22132,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22205,7 +22205,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22278,7 +22278,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22299,7 +22299,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22372,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -22424,7 +22424,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22491,7 +22491,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22560,45 +22560,45 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6580121</t>
+          <t>6875236</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Burger</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/the-green-mountain-plant-based-burger/p/6580121</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E324" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -22608,7 +22608,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -22618,188 +22618,188 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Burger 6.95 Schweizer Franken</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6875236</t>
+          <t>7059246</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
+          <t>Äpfel Diwa I IP-Suisse ca. 1kg</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-diwa-i-ip-suisse-ca/p/7059246</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>5.20/1kg</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Äpfel Diwa I IP-Suisse ca. 1kg 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>7059246</t>
+          <t>7048923</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Äpfel Diwa I IP-Suisse ca. 1kg</t>
+          <t>Garden Gourmet Sensational Schnitzel</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-diwa-i-ip-suisse-ca/p/7059246</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
-      </c>
-      <c r="F326" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>5.20/1kg</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Äpfel Diwa I IP-Suisse ca. 1kg 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>7048923</t>
+          <t>6580121</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel</t>
+          <t>The Green Mountain plant-based Burger</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/the-green-mountain-plant-based-burger/p/6580121</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E327" t="n">
         <v>4.5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -22829,12 +22829,12 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Burger 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -22844,7 +22844,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23059,7 +23059,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23128,7 +23128,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23554,7 +23554,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23696,7 +23696,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23769,45 +23769,45 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D341" t="n">
+        <v>7</v>
+      </c>
+      <c r="E341" t="n">
         <v>4</v>
       </c>
-      <c r="E341" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -23827,60 +23827,60 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 5.20 Schweizer Franken</t>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E342" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -23890,7 +23890,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -23900,22 +23900,22 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -23984,7 +23984,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24057,7 +24057,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24122,7 +24122,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24268,7 +24268,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24410,7 +24410,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24479,7 +24479,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24552,7 +24552,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24625,45 +24625,45 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>7024350</t>
+          <t>6862503</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks</t>
+          <t>Betty Bossi Sous vide Karotten</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -24683,46 +24683,46 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6862503</t>
+          <t>5947702</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten</t>
+          <t>Fairtrade Trauben Mix kernarm</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E354" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -24731,12 +24731,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -24746,7 +24746,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -24756,60 +24756,56 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fairtrade Trauben Mix kernarm 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>5947702</t>
+          <t>7024350</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Fairtrade Trauben Mix kernarm</t>
+          <t>The Green Mountain plant-based Chunks</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-chunks/p/7024350</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -24819,7 +24815,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -24829,18 +24825,22 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Fairtrade Trauben Mix kernarm 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr"/>
+          <t>The Green Mountain plant-based Chunks 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -24913,45 +24913,45 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6469381</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-sensational-vegan-burger/p/6469381</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="E357" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -24961,7 +24961,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -24971,60 +24971,60 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger 6.50 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>6469381</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Garden Gourmet Sensational vegan Burger</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-sensational-vegan-burger/p/6469381</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E358" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25034,7 +25034,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25044,60 +25044,60 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational vegan Burger 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>6961417</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>Naturaplan Bio Hörnlisalat</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-hoernlisalat/p/6961417</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E359" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.37/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25117,60 +25117,60 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25180,7 +25180,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25190,12 +25190,12 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -25205,98 +25205,114 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>7042413</t>
+          <t>4158362</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Max Havelaar Mango Large 1 Stück</t>
+          <t>Seeberger Soft Datteln getrocknet</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/max-havelaar-mango-large-1-stueck/p/7042413</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E361" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Seeberger</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>1.65/100g</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Max Havelaar Mango Large 1 Stück 2.95 Schweizer Franken</t>
+          <t>Seeberger Soft Datteln getrocknet 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6961417</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-hoernlisalat/p/6961417</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2.37/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -25306,7 +25322,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -25316,60 +25332,60 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Hörnlisalat 4.50 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>4158362</t>
+          <t>6881493</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet</t>
+          <t>Yolo Cevapcici</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E363" t="n">
         <v>3.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Seeberger</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -25379,7 +25395,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -25389,18 +25405,22 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr"/>
+          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25473,7 +25493,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25546,80 +25566,60 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6881493</t>
+          <t>7042413</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici</t>
+          <t>Max Havelaar Mango Large 1 Stück</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/max-havelaar-mango-large-1-stueck/p/7042413</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2.06/100g</t>
-        </is>
-      </c>
-      <c r="I366" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J366" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Max Havelaar Mango Large 1 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25670,7 +25670,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25808,7 +25808,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25879,7 +25879,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -25952,7 +25952,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26017,7 +26017,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26086,7 +26086,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26159,7 +26159,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26230,7 +26230,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26251,10 +26251,10 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E376" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26370,7 +26370,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26441,7 +26441,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26587,45 +26587,45 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6594018</t>
+          <t>6115558</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan</t>
+          <t>Naturaplan Bio Poker Salat</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-mexican-style-vegan/p/6594018</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -26645,60 +26645,56 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6115558</t>
+          <t>6594018</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat</t>
+          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-poker-salat/p/6115558</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-mexican-style-vegan/p/6594018</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E382" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -26708,7 +26704,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -26718,18 +26714,22 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Poker Salat 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N382" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26798,7 +26798,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26871,7 +26871,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -26944,7 +26944,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27090,7 +27090,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27228,7 +27228,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27293,7 +27293,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27366,7 +27366,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27433,7 +27433,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27502,7 +27502,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27640,7 +27640,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27709,7 +27709,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27920,7 +27920,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -27993,7 +27993,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28066,7 +28066,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28131,7 +28131,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28204,7 +28204,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28277,7 +28277,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28350,7 +28350,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28417,7 +28417,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28470,7 +28470,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28535,7 +28535,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28600,7 +28600,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28819,7 +28819,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -28961,7 +28961,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29099,7 +29099,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29164,28 +29164,28 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6862384</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Betty Bossi Suppen Mix</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suppen-mix/p/6862384</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E418" t="n">
         <v>2</v>
@@ -29197,64 +29197,68 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N418" t="inlineStr"/>
+          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6862384</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suppen-mix/p/6862384</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E419" t="n">
         <v>2</v>
@@ -29266,47 +29270,43 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29379,7 +29379,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29452,7 +29452,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29525,7 +29525,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29598,7 +29598,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29671,7 +29671,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29744,7 +29744,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29765,7 +29765,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -29817,7 +29817,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29890,7 +29890,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -29963,149 +29963,149 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6058078</t>
+          <t>7071611</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ünique Gemüse Mix</t>
+          <t>Yolo Salami Snack Sausages</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/naturaplan-bio-uenique-gemuese-mix/p/6058078</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
         </is>
       </c>
       <c r="D429" t="n">
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ünique Gemüse Mix 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N429" t="inlineStr"/>
+          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>7071611</t>
+          <t>6058078</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages</t>
+          <t>Naturaplan Bio Ünique Gemüse Mix</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/naturaplan-bio-uenique-gemuese-mix/p/6058078</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E430" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N430" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Ünique Gemüse Mix 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30168,7 +30168,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30241,68 +30241,54 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>6693270</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitrus Mix</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>3</v>
+      </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2.33/100g</t>
-        </is>
-      </c>
-      <c r="I433" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -30312,54 +30298,68 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>6693270</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Betty Bossi Zitrus Mix</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
-        </is>
-      </c>
-      <c r="D434" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
       <c r="E434" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H434" t="inlineStr"/>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2.33/100g</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -30369,7 +30369,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30576,7 +30576,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30720,7 +30720,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30864,7 +30864,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -30937,7 +30937,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31010,7 +31010,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31075,7 +31075,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31213,7 +31213,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31286,7 +31286,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31359,43 +31359,45 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>7014561</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger</t>
+          <t>The Green Mountain plant-based Schnitzel</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.17/100g</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -31405,7 +31407,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -31415,60 +31417,58 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>6723051</t>
+          <t>7014561</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
+          <t>Yolo Ocean Burger</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
-        </is>
-      </c>
-      <c r="D450" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-ocean-burger/p/7014561</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
       <c r="E450" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -31478,7 +31478,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -31488,12 +31488,12 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
+          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -31503,149 +31503,149 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>6073300</t>
+          <t>6723051</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box</t>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bauernbratwurstalternative/p/6723051</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E451" t="n">
         <v>3.5</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>8.25/1kg</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N451" t="inlineStr"/>
+          <t>The Green Mountain plant-based Bauernbratwurstalternative 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>6073300</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel</t>
+          <t>Pro Specie Rara Explorer Box</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E452" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>4.17/100g</t>
+          <t>8.25/1kg</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N452" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31718,7 +31718,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31787,7 +31787,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31852,7 +31852,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31921,7 +31921,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -31988,7 +31988,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32193,7 +32193,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32260,7 +32260,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32327,7 +32327,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32348,7 +32348,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E463" t="n">
         <v>3</v>
@@ -32400,7 +32400,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32471,7 +32471,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32542,7 +32542,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32684,7 +32684,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
@@ -32753,7 +32753,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-03 12:58:24</t>
+          <t>2023-02-03 20:50:38</t>
         </is>
       </c>
     </row>
